--- a/doc/_static/example-files/PMHC-4-0-combined-delete.xlsx
+++ b/doc/_static/example-files/PMHC-4-0-combined-delete.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="306">
   <si>
     <t>key</t>
   </si>
@@ -152,9 +152,6 @@
     <t>date_client_contacted_intake</t>
   </si>
   <si>
-    <t>intake_funding_source</t>
-  </si>
-  <si>
     <t>suicide_referral_flag</t>
   </si>
   <si>
@@ -528,6 +525,36 @@
   </si>
   <si>
     <t>k5_tags</t>
+  </si>
+  <si>
+    <t>K5M400</t>
+  </si>
+  <si>
+    <t>K5M401</t>
+  </si>
+  <si>
+    <t>K5M402</t>
+  </si>
+  <si>
+    <t>K5M403</t>
+  </si>
+  <si>
+    <t>K5M404</t>
+  </si>
+  <si>
+    <t>K5M405</t>
+  </si>
+  <si>
+    <t>K5M406</t>
+  </si>
+  <si>
+    <t>K5M407</t>
+  </si>
+  <si>
+    <t>K5M408</t>
+  </si>
+  <si>
+    <t>K5M409</t>
   </si>
   <si>
     <t>sdq_version</t>
@@ -1297,34 +1324,34 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>164</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1332,6 +1359,9 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1340,6 +1370,9 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1348,6 +1381,9 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1356,6 +1392,9 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1364,6 +1403,9 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1372,6 +1414,9 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1380,6 +1425,9 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1388,6 +1436,9 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1396,6 +1447,9 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1404,6 +1458,9 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1425,166 +1482,166 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="N1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="S1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="U1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="V1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="W1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="X1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Y1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Z1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AA1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AB1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AC1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AE1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AF1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AG1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AH1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AI1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AJ1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AK1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AL1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AM1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AN1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AO1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AP1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AQ1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AR1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AS1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AT1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AU1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AW1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AX1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AY1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AZ1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="BA1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="BB1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="BC1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -1592,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1603,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1614,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1625,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1636,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1647,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1658,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1669,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1680,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1691,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1702,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1713,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1724,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1735,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1746,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1757,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1768,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1779,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1790,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1801,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1812,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1836,58 +1893,58 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="P1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="R1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="S1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1895,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1906,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1917,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1928,7 +1985,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1939,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1950,7 +2007,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1961,7 +2018,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1972,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1983,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1994,7 +2051,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2018,19 +2075,19 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2038,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2049,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2060,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2071,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2082,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2093,7 +2150,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2104,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -2115,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -2126,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2137,7 +2194,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2148,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2159,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -2183,31 +2240,31 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2215,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2226,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2237,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2248,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2259,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2270,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2281,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -2292,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -2303,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2314,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2504,13 +2561,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2556,115 +2613,112 @@
       <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2688,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -2697,40 +2751,40 @@
         <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2738,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2749,7 +2803,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2760,7 +2814,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2771,7 +2825,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2782,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2793,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2804,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -2815,7 +2869,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -2826,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2837,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2861,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -2870,13 +2924,13 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
         <v>36</v>
@@ -2885,58 +2939,58 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>91</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>93</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>94</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>95</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>98</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>99</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -2945,10 +2999,10 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" t="s">
         <v>100</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -2956,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2967,7 +3021,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2978,7 +3032,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2989,7 +3043,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3000,7 +3054,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -3011,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3022,7 +3076,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -3033,7 +3087,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -3044,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -3055,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3076,16 +3130,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -3096,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3107,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3118,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3129,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3140,7 +3194,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -3151,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3162,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -3173,7 +3227,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -3184,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -3195,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3219,22 +3273,22 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3242,7 +3296,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3253,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3264,7 +3318,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3275,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3286,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -3297,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3308,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -3319,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -3330,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -3341,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3352,7 +3406,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -3363,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -3374,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -3385,7 +3439,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -3396,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -3407,7 +3461,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -3418,7 +3472,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -3429,7 +3483,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -3440,7 +3494,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -3451,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -3462,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -3486,61 +3540,61 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>151</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>153</v>
-      </c>
-      <c r="T1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3548,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3559,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3570,7 +3624,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3581,7 +3635,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3592,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
